--- a/aux-enem/mapas/mapa_2020.xlsx
+++ b/aux-enem/mapas/mapa_2020.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>First day of the 2020 exam</t>
+          <t>First day - ENEM 2020</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Second day of the 2020 exam</t>
+          <t>Second day - ENEM 2020</t>
         </is>
       </c>
     </row>
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>54.63886370504684</v>
+        <v>54.64</v>
       </c>
       <c r="G2" t="n">
-        <v>35.4201844395376</v>
+        <v>57.31</v>
       </c>
     </row>
     <row r="3">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>28.47380410022779</v>
+        <v>28.47</v>
       </c>
       <c r="G3" t="n">
-        <v>24.80053191489361</v>
+        <v>32.23</v>
       </c>
     </row>
     <row r="4">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>62.4667994687915</v>
+        <v>62.47</v>
       </c>
       <c r="G4" t="n">
-        <v>52.19201054081572</v>
+        <v>63.49</v>
       </c>
     </row>
     <row r="5">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>42.60089686098655</v>
+        <v>42.6</v>
       </c>
       <c r="G5" t="n">
-        <v>30.68309070548712</v>
+        <v>47.21</v>
       </c>
     </row>
     <row r="6">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>32.64973270107826</v>
+        <v>32.65</v>
       </c>
       <c r="G6" t="n">
-        <v>21.40443388168888</v>
+        <v>35.79</v>
       </c>
     </row>
     <row r="7">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>35.68022440392707</v>
+        <v>35.68</v>
       </c>
       <c r="G7" t="n">
-        <v>24.51973454418442</v>
+        <v>38.91</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>49.62752749201845</v>
+        <v>49.63</v>
       </c>
       <c r="G8" t="n">
-        <v>30.15479876160991</v>
+        <v>51.91</v>
       </c>
     </row>
     <row r="9">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>34.99080600674226</v>
+        <v>34.99</v>
       </c>
       <c r="G9" t="n">
-        <v>21.76915799432356</v>
+        <v>37.91</v>
       </c>
     </row>
     <row r="10">
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>28.69487863769221</v>
+        <v>28.69</v>
       </c>
       <c r="G10" t="n">
-        <v>16.51762619170793</v>
+        <v>30.61</v>
       </c>
     </row>
     <row r="11">
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>45.98451148303026</v>
+        <v>45.98</v>
       </c>
       <c r="G11" t="n">
-        <v>36.60837922261939</v>
+        <v>50.04</v>
       </c>
     </row>
     <row r="12">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>23.64765826760662</v>
+        <v>23.65</v>
       </c>
       <c r="G12" t="n">
-        <v>14.63018780431254</v>
+        <v>25.89</v>
       </c>
     </row>
     <row r="13">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>28.95242914979757</v>
+        <v>28.95</v>
       </c>
       <c r="G13" t="n">
-        <v>23.46574488581629</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="14">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>39.40693104680243</v>
+        <v>39.41</v>
       </c>
       <c r="G14" t="n">
-        <v>25.34616053894151</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="15">
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>34.28734974241557</v>
+        <v>34.29</v>
       </c>
       <c r="G15" t="n">
-        <v>18.51020026202508</v>
+        <v>36.74</v>
       </c>
     </row>
     <row r="16">
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>36.33020775877919</v>
+        <v>36.33</v>
       </c>
       <c r="G16" t="n">
-        <v>20.1061320754717</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="17">
@@ -992,10 +992,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>30.07727320842596</v>
+        <v>30.08</v>
       </c>
       <c r="G17" t="n">
-        <v>27.13363863447127</v>
+        <v>32.42</v>
       </c>
     </row>
     <row r="18">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>32.07054486552909</v>
+        <v>32.07</v>
       </c>
       <c r="G18" t="n">
-        <v>21.16725823525749</v>
+        <v>34.34</v>
       </c>
     </row>
     <row r="19">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>30.35995439491829</v>
+        <v>30.36</v>
       </c>
       <c r="G19" t="n">
-        <v>20.96052557059523</v>
+        <v>34.05</v>
       </c>
     </row>
     <row r="20">
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>32.12853330776728</v>
+        <v>32.13</v>
       </c>
       <c r="G20" t="n">
-        <v>18.67530518494116</v>
+        <v>35.15</v>
       </c>
     </row>
     <row r="21">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>37.76998857539344</v>
+        <v>37.77</v>
       </c>
       <c r="G21" t="n">
-        <v>18.74269571888465</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="22">
@@ -1157,10 +1157,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>34.83743613562471</v>
+        <v>34.84</v>
       </c>
       <c r="G22" t="n">
-        <v>21.83642157441284</v>
+        <v>37.49</v>
       </c>
     </row>
     <row r="23">
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>39.83852701567238</v>
+        <v>39.84</v>
       </c>
       <c r="G23" t="n">
-        <v>24.5358793665227</v>
+        <v>42.94</v>
       </c>
     </row>
     <row r="24">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>33.72169526838094</v>
+        <v>33.72</v>
       </c>
       <c r="G24" t="n">
-        <v>21.44233723430997</v>
+        <v>36.64</v>
       </c>
     </row>
     <row r="25">
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>37.72677411188929</v>
+        <v>37.73</v>
       </c>
       <c r="G25" t="n">
-        <v>24.00674662668666</v>
+        <v>41.14</v>
       </c>
     </row>
     <row r="26">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>37.31770478397165</v>
+        <v>37.32</v>
       </c>
       <c r="G26" t="n">
-        <v>24.54538298039833</v>
+        <v>40.32</v>
       </c>
     </row>
     <row r="27">
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>47.21013855012698</v>
+        <v>47.21</v>
       </c>
       <c r="G27" t="n">
-        <v>45.0281342437115</v>
+        <v>49.85</v>
       </c>
     </row>
     <row r="28">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>25.53931451612903</v>
+        <v>25.54</v>
       </c>
       <c r="G28" t="n">
-        <v>14.21983089930822</v>
+        <v>27.86</v>
       </c>
     </row>
   </sheetData>
